--- a/docs/assets/disciplinas/LOT2045.xlsx
+++ b/docs/assets/disciplinas/LOT2045.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2018</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +76,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Provide students with the knowledge of cell biology necessary to understand the other subjects of the course and the training of the Environmental Engineer.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -85,25 +88,25 @@
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Origem e evolução da célula; análise estrutural das células ao microscópio; moléculas orgânicas; organização interna da célula; organelas celulares transdutoras de energia; material genético e mecanismo de divisão celular.</t>
+    <t>Análise estrutural das células ao microscópio; moléculas orgânicas; organização interna da célula; organelas celulares transdutoras de energia; material genético e mecanismo de divisão celular.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
   </si>
   <si>
-    <t>The origin and evolution of the cell; organic molecules; internal organization of the cell; cell energy conversion; genetic material and mechanism of cell division.</t>
+    <t>Organic molecules; internal organization of the cell; cell energy conversion; genetic material and mechanism of cell division.</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>- Origem e evolução da célula: conceitos básicos de sistemática e filogenia molecular; características dos três diferentes domínios da vida- Análise estrutural das células ao microscópio: microscopia ótica e eletrônica.- Estrutura e função das principais moléculas orgânicas: carboidratos, lipídeos, ácidos nucleicos, aminoácidos. - Organização interna da célula: estrutura e função da membrana plasmática; compartimentos intracelulares e seleção de proteínas; tráfico de vesículas (via de exocitose e endocitose).- Núcleo e organização do material genético: estrutura e função- Ciclo celular e divisão celular: mitose e meiose.- Organelas celulares transdutoras de energia: mitocôndria e cloroplasto.</t>
+    <t>- Estrutura celular e história evolutiva: microrganismos procarióticos eeucarióticos e suas relações evolutivas dentre os domínios Bacteria, Archaea eEukarya.- Análise estrutural das células ao microscópio: microscopia ótica e eletrônica.- Estrutura e função das principais moléculas orgânicas: carboidratos, lipídeos, ácidos nucleicos, aminoácidos. - Organização interna da célula: estrutura e função da membrana plasmática; compartimentos intracelulares e seleção de proteínas; tráfico de vesículas (via de exocitose e endocitose).- Núcleo e organização do material genético: estrutura e função- Ciclo celular e divisão celular: mitose e meiose.- Organelas celulares transdutoras de energia: mitocôndria e cloroplasto.</t>
   </si>
   <si>
     <t>Syllabus:</t>
   </si>
   <si>
-    <t>The origins and evolution of the cell: basic concepts of systematic and molecular phylogenetics; characteristics of the three domains of life. Microscope analysis of cells structure: optical and electron microscope.Structure and function of major organic molecules: carbohydrates, lipids, nucleic acids and proteins. Internal organization of the cell: membrane structure and function; intracelular compartments and protein sorting; vesicular traffic (endocytosis and exocytosis).Nucleus and genetic material organization: structure and functionCell cycle and cell division: mitosis and meiosisCell energy conversion: mitochondria and chloroplast.</t>
+    <t>Cell structure and evolutionary history: prokaryotic microorganisms andeukaryotic and their evolutionary relationships between the Bacteria, Archaea andEukarya.Microscope analysis of cells structure: optical and electron microscope.Structure and function of major organic molecules: carbohydrates, lipids, nucleic acids and proteins. Internal organization of the cell: membrane structure and function; intracelular compartments and protein sorting; vesicular traffic (endocytosis and exocytosis).Nucleus and genetic material organization: structure and functionCell cycle and cell division: mitosis and meiosisCell energy conversion: mitochondria and chloroplast.</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -605,111 +608,117 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOT2045.xlsx
+++ b/docs/assets/disciplinas/LOT2045.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Proporcionar aos discentes os conhecimentos de biologia celular necessários à compreensão das demais disciplinas do curso e a formação do Engenheiro Ambiental.</t>
+    <t>1304060 - Maria das Graças de Almeida Felipe</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>1304060 - Maria das Graças de Almeida Felipe</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Análise estrutural das células ao microscópio; moléculas orgânicas; organização interna da célula; organelas celulares transdutoras de energia; material genético e mecanismo de divisão celular.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>- Estrutura celular e história evolutiva: microrganismos procarióticos eeucarióticos e suas relações evolutivas dentre os domínios Bacteria, Archaea eEukarya.- Análise estrutural das células ao microscópio: microscopia ótica e eletrônica.- Estrutura e função das principais moléculas orgânicas: carboidratos, lipídeos, ácidos nucleicos, aminoácidos. - Organização interna da célula: estrutura e função da membrana plasmática; compartimentos intracelulares e seleção de proteínas; tráfico de vesículas (via de exocitose e endocitose).- Núcleo e organização do material genético: estrutura e função- Ciclo celular e divisão celular: mitose e meiose.- Organelas celulares transdutoras de energia: mitocôndria e cloroplasto.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Duas provas escritas (P1 e P2) distribuídas no semestre.Nota final (NF)NF = (MF + PR)/2, onde PR é uma prova de recuperação. Prova de recuperação (PR) para alunos com Média Final maior ou igual a 3,0 e menor do que 5,0. Será considerado aprovado o aluno que tenha obtido Nota Final igual ou maior do que 5,0.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>MF = média finalMF = (P1 + P2)/2</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Nota final (NF)NF = (MF + PR)/2, onde PR é uma prova de recuperação. Prova de recuperação (PR) para alunos com Média Final maior ou igual a 3,0 e menor do que 5,0. Será considerado aprovado o aluno que tenha obtido Nota Final igual ou maior do que 5,0.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>-Alberts, B. et al. Biologia Molecular da Célula, 5ed. Artmed Editora Ltda, 2010.-Cooper, G.M.; Robert, E.H. A célula: uma abordagem molecular. Artmed Editora Ltda, 3ª Edição, 2007.-Wasserman, S.A.; Monorsky, P.V.; Jackson, R.; Reece, J.; Cain, M.; Urry, L. Biologia de Campbell. Artmed Editora, 8ª Edição, 2010.-Raven, P.H.; Evert, S.E. Biologia vegetal. Editora Guanabara Koogan, 2007.-Madigan, M.T.; Martinko, J.M.; Bender, K.S.; Buckley, D.H.; Stahl, D.A. Microbiologia de Brock. Editora Artmed, 14 Edição, 2016. -De Roberts, E.M.F.; Hibs, J. Bases da biologia celular e molecular. Editora Guanabara Koogan, 2006.-Taiz, L.; Zeiger, E. Plant Physiology. Mass. Sinauer Associates, 2006.</t>
   </si>
 </sst>
 </file>
@@ -489,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,34 +611,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -661,64 +655,53 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOT2045.xlsx
+++ b/docs/assets/disciplinas/LOT2045.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Proporcionar aos discentes os conhecimentos de biologia celular necessários à compreensão das demais disciplinas do curso e a formação do Engenheiro Ambiental.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide students with the knowledge of cell biology necessary to understand the other subjects of the course and the training of the Environmental Engineer.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>1304060 - Maria das Graças de Almeida Felipe</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide students with the knowledge of cell biology necessary to understand the other subjects of the course and the training of the Environmental Engineer.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Análise estrutural das células ao microscópio; moléculas orgânicas; organização interna da célula; organelas celulares transdutoras de energia; material genético e mecanismo de divisão celular.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>- Estrutura celular e história evolutiva: microrganismos procarióticos eeucarióticos e suas relações evolutivas dentre os domínios Bacteria, Archaea eEukarya.- Análise estrutural das células ao microscópio: microscopia ótica e eletrônica.- Estrutura e função das principais moléculas orgânicas: carboidratos, lipídeos, ácidos nucleicos, aminoácidos. - Organização interna da célula: estrutura e função da membrana plasmática; compartimentos intracelulares e seleção de proteínas; tráfico de vesículas (via de exocitose e endocitose).- Núcleo e organização do material genético: estrutura e função- Ciclo celular e divisão celular: mitose e meiose.- Organelas celulares transdutoras de energia: mitocôndria e cloroplasto.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Duas provas escritas (P1 e P2) distribuídas no semestre.Nota final (NF)NF = (MF + PR)/2, onde PR é uma prova de recuperação. Prova de recuperação (PR) para alunos com Média Final maior ou igual a 3,0 e menor do que 5,0. Será considerado aprovado o aluno que tenha obtido Nota Final igual ou maior do que 5,0.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Duas provas escritas (P1 e P2) distribuídas no semestre.Nota final (NF)NF = (MF + PR)/2, onde PR é uma prova de recuperação. Prova de recuperação (PR) para alunos com Média Final maior ou igual a 3,0 e menor do que 5,0. Será considerado aprovado o aluno que tenha obtido Nota Final igual ou maior do que 5,0.</t>
+    <t>MF = média finalMF = (P1 + P2)/2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>MF = média finalMF = (P1 + P2)/2</t>
+    <t>Nota final (NF)NF = (MF + PR)/2, onde PR é uma prova de recuperação. Prova de recuperação (PR) para alunos com Média Final maior ou igual a 3,0 e menor do que 5,0. Será considerado aprovado o aluno que tenha obtido Nota Final igual ou maior do que 5,0.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Nota final (NF)NF = (MF + PR)/2, onde PR é uma prova de recuperação. Prova de recuperação (PR) para alunos com Média Final maior ou igual a 3,0 e menor do que 5,0. Será considerado aprovado o aluno que tenha obtido Nota Final igual ou maior do que 5,0.</t>
+    <t>-Alberts, B. et al. Biologia Molecular da Célula, 5ed. Artmed Editora Ltda, 2010.-Cooper, G.M.; Robert, E.H. A célula: uma abordagem molecular. Artmed Editora Ltda, 3ª Edição, 2007.-Wasserman, S.A.; Monorsky, P.V.; Jackson, R.; Reece, J.; Cain, M.; Urry, L. Biologia de Campbell. Artmed Editora, 8ª Edição, 2010.-Raven, P.H.; Evert, S.E. Biologia vegetal. Editora Guanabara Koogan, 2007.-Madigan, M.T.; Martinko, J.M.; Bender, K.S.; Buckley, D.H.; Stahl, D.A. Microbiologia de Brock. Editora Artmed, 14 Edição, 2016. -De Roberts, E.M.F.; Hibs, J. Bases da biologia celular e molecular. Editora Guanabara Koogan, 2006.-Taiz, L.; Zeiger, E. Plant Physiology. Mass. Sinauer Associates, 2006.</t>
   </si>
 </sst>
 </file>
@@ -480,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -611,37 +620,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -655,53 +661,64 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
